--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1960.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1960.xlsx
@@ -354,10 +354,10 @@
         <v>1.427964139310219</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.257260711026721</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1960.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1960.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.046250140737285</v>
+        <v>1.100554585456848</v>
       </c>
       <c r="B1">
-        <v>1.427964139310219</v>
+        <v>2.111649990081787</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>9.208041191101074</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.409876108169556</v>
       </c>
       <c r="E1">
-        <v>1.257260711026721</v>
+        <v>1.294128775596619</v>
       </c>
     </row>
   </sheetData>
